--- a/groupe/Preuve/Actions Trimeta groupe.xlsx
+++ b/groupe/Preuve/Actions Trimeta groupe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebMaster\lucas\Free\Trimeta\Groupe\Audit\groupe\Preuve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA2FA19-4F10-460C-ABBE-9227B66BCBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4090D05-2DC3-489A-8000-E322D48A3827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28830" yWindow="1620" windowWidth="28770" windowHeight="13125" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="global" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="408">
   <si>
     <t>Commentaire</t>
   </si>
@@ -336,54 +336,6 @@
   </si>
   <si>
     <t>http://www.trimetagroup.com</t>
-  </si>
-  <si>
-    <t>/css/navbar.css(www.trimetagroup.com)</t>
-  </si>
-  <si>
-    <t>/css/app.css(www.trimetagroup.com)</t>
-  </si>
-  <si>
-    <t>…logo/logo_enduma.webp</t>
-  </si>
-  <si>
-    <t>…logo/logo_trimeta.webp</t>
-  </si>
-  <si>
-    <t>…logo/logo_wimmo.webp</t>
-  </si>
-  <si>
-    <t>…logo/Millot.webp</t>
-  </si>
-  <si>
-    <t>…logo/logo_orkidex.webp</t>
-  </si>
-  <si>
-    <t>…logo/alma_logo.webp</t>
-  </si>
-  <si>
-    <t>/js/motion.js</t>
-  </si>
-  <si>
-    <t>…Enduma/enduma_2.webp</t>
-  </si>
-  <si>
-    <t>…TAF/trimeta_4.webp</t>
-  </si>
-  <si>
-    <t>…Wimmo/wimmo_2.webp</t>
-  </si>
-  <si>
-    <t>…Millot/millot-plantation.webp</t>
-  </si>
-  <si>
-    <t>…TAF/trimeta_2.webp</t>
-  </si>
-  <si>
-    <t>…alma/alma-1.webp</t>
-  </si>
-  <si>
-    <t>…Groupe/groupe_10.webp</t>
   </si>
   <si>
     <t>http://www.trimetagroup.com/images/Enduma/enduma.webp</t>
@@ -1324,6 +1276,18 @@
   </si>
   <si>
     <t>Garden villa</t>
+  </si>
+  <si>
+    <t>https://www.trimeta-agrofood.mg/</t>
+  </si>
+  <si>
+    <t>problème de certificat ssl expiré</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/css/navbar.css(www.trimetagroup.com)</t>
+  </si>
+  <si>
+    <t>http://www.trimetagroup.com/css/app.css(www.trimetagroup.com)</t>
   </si>
 </sst>
 </file>
@@ -1485,12 +1449,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1790,14 +1754,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
@@ -1910,7 +1874,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1922,7 +1886,7 @@
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -1936,7 +1900,7 @@
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -1978,7 +1942,7 @@
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2019,20 +1983,20 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2093,23 +2057,23 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -2133,7 +2097,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>7</v>
@@ -2147,7 +2111,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>20</v>
@@ -2155,7 +2119,7 @@
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="F27" s="12"/>
     </row>
@@ -2169,7 +2133,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -2186,21 +2150,21 @@
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="12" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="13" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>94</v>
@@ -2209,7 +2173,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>7</v>
@@ -2222,7 +2186,7 @@
         <v>99</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2232,12 +2196,12 @@
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>20</v>
@@ -2245,35 +2209,35 @@
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>20</v>
@@ -2281,23 +2245,23 @@
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="F36" s="12"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="12" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="F37" s="12"/>
     </row>
@@ -2515,8 +2479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC33D7C8-33CA-4A4B-BF83-F464CE57C367}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2532,46 +2496,46 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2581,128 +2545,128 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="D7" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="E7" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="F7" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="G7" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="H7" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="F8" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="G8" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="H8" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E9" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="F9" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="G9" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="H9" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="F10" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="G10" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="H10" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E11" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="F11" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="G11" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="H11" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2711,87 +2675,87 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="F14" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="H14" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D15" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="F15" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="H15" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="D16" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="F16" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="H16" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D17" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="F17" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="H17" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D18" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="F18" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="H18" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2801,959 +2765,959 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D21" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="F21" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="H21" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D22" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="F22" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="H22" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E25" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="F25" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="G25" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="H25" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D28" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E28" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="F28" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="G28" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="H28" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E30" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="F30" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G30" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="H30" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="D31" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E31" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="F31" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="G31" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="H31" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="C32" s="4"/>
       <c r="E32" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="F32" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="G32" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="H32" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D33" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E33" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="F33" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="G33" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="H33" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E34" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F34" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="G34" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="H34" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D35" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E35" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="F35" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="G35" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="H35" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E36" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="F36" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="G36" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="H36" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="D37" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="E37" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="F37" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="G37" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="H37" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="C38" s="4"/>
       <c r="F38" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="H38" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E42" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="F42" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="G42" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="H42" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="F43" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="G43" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="H43" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="D44" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="F44" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="G44" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="H44" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D45" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E45" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="F45" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="G45" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="H45" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D46" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E46" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="F46" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="G46" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="H46" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D47" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E47" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="F47" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="G47" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="H47" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="C48" s="4"/>
       <c r="E48" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="F48" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="G48" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="H48" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="C49" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="D49" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="E49" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F49" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="G49" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="H49" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="E50" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="F50" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="G50" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="H50" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D53" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="E53" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="F53" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="G53" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="H53" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C54" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D54" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="E54" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="F54" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="G54" t="s">
-        <v>377</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>347</v>
+        <v>361</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>100</v>
       </c>
       <c r="D57" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="F57" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="H57" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>100</v>
       </c>
       <c r="D58" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E58" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="F58" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="G58" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="H58" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D59" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E59" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="F59" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="G59" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="H59" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="D60" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="F60" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="H60" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D61" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="F61" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="H61" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="D62" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="F62" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="H62" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C63" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D63" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E63" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="F63" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="G63" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="H63" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="D65" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="E65" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="F65" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="G65" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="H65" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="D66" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E66" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="F66" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="G66" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="H66" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D67" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E67" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="F67" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="G67" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="H67" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D68" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="F68" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="G68" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="H68" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C71" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D71" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F71" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="G71" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="H71" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C72" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D72" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="F72" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="G72" t="s">
-        <v>383</v>
-      </c>
-      <c r="H72" s="16" t="s">
-        <v>382</v>
+        <v>367</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="F73" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="G73" t="s">
-        <v>404</v>
-      </c>
-      <c r="H73" s="16" t="s">
-        <v>385</v>
+        <v>388</v>
+      </c>
+      <c r="H73" s="15" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="F74" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="G74" t="s">
-        <v>392</v>
-      </c>
-      <c r="H74" s="16" t="s">
-        <v>390</v>
+        <v>376</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="F75" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="G75" t="s">
-        <v>399</v>
-      </c>
-      <c r="H75" s="16" t="s">
-        <v>397</v>
+        <v>383</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C76" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D76" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F76" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="G76" t="s">
-        <v>395</v>
-      </c>
-      <c r="H76" s="16" t="s">
-        <v>393</v>
+        <v>379</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C77" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="D77" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="F77" t="s">
-        <v>406</v>
-      </c>
-      <c r="H77" s="16" t="s">
-        <v>405</v>
+        <v>390</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B78" s="6" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="F78" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="G78" t="s">
-        <v>403</v>
-      </c>
-      <c r="H78" s="16" t="s">
-        <v>401</v>
+        <v>387</v>
+      </c>
+      <c r="H78" s="15" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="C82" t="s">
         <v>100</v>
       </c>
       <c r="D82" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C83" t="s">
         <v>100</v>
       </c>
       <c r="D83" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="C84" t="s">
         <v>100</v>
       </c>
       <c r="D84" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -3796,7 +3760,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3806,114 +3770,61 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F174ECA9-E382-4643-97D4-98D68730974F}">
-  <dimension ref="A2:A19"/>
+  <dimension ref="A2:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>102</v>
+      <c r="A3" s="2" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>117</v>
+      <c r="A4" s="2" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{C705C0C3-7571-4732-BC72-BF7C12DF50EF}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{3306A104-F398-4329-B76E-A4D3769860B3}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{D1B85BAE-D954-4172-99C8-8B6DB60FDFC0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA9459D-6086-4E5A-9978-58A21FD0C7D6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{614A38B4-1C9B-4F0B-A2EA-E4C4B8800668}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>